--- a/application/views/rpt/ru/EventList.xlsx
+++ b/application/views/rpt/ru/EventList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Список заданий "{$v-&gt;label}" от {$v-&gt;date} </t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Доп-но</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата</t>
   </si>
   <si>
     <t xml:space="preserve">{$v-&gt;rows[]-&gt;i}</t>
@@ -180,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -202,20 +205,6 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -242,7 +231,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -289,18 +278,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -376,27 +353,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:L31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="1" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="1" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -409,56 +390,61 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -467,12 +453,12 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -485,36 +471,38 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="n">
+      <c r="A7" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -527,387 +515,459 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="10" t="n">
+      <c r="A8" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="10" t="n">
+      <c r="A9" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="10" t="n">
+      <c r="A10" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="10" t="n">
+      <c r="A11" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="10" t="n">
+      <c r="A12" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="10" t="n">
+      <c r="A13" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10" t="n">
+      <c r="A14" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="10" t="n">
+      <c r="A15" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="10" t="n">
+      <c r="A16" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="10" t="n">
+      <c r="A17" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10" t="n">
+      <c r="A18" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="10" t="n">
+      <c r="A19" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="n">
+      <c r="A20" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="10" t="n">
+      <c r="A21" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="10" t="n">
+      <c r="A22" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="10" t="n">
+      <c r="A23" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10" t="n">
+      <c r="A24" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="10" t="n">
+      <c r="A25" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="10" t="n">
+      <c r="A26" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="10" t="n">
+      <c r="A27" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="10" t="n">
+      <c r="A28" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="14"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="10" t="n">
+      <c r="A29" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="10" t="n">
+      <c r="A30" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="10" t="n">
+      <c r="A31" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="C6:E6"/>
+  <mergeCells count="64">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="J31:L31"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="87" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="83" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
